--- a/bioprojects/subcaste_bees_PRJNA104931/SraRunTable.xlsx
+++ b/bioprojects/subcaste_bees_PRJNA104931/SraRunTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/gitreps/gbm_and_transcription/bioprojects/subcaste_bees_PRJNA104931/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/gitreps/invert_meth_and_transcription/bioprojects/subcaste_bees_PRJNA104931/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5893C5-175A-554B-85D7-589C02EE0B32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2806013C-BA27-6E47-9894-7747BF917DE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="3360" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="6380" yWindow="3360" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subcaste_bees_SraRunTable" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1484,10 +1484,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
